--- a/excel016.xlsx
+++ b/excel016.xlsx
@@ -38,7 +38,7 @@
     <t>Note: Convert the decimal numbers to binary and hexadecimal.</t>
   </si>
   <si>
-    <t>Use the BIN2DEC and BIN2HEX functions with 8 and 2 spaces respectively</t>
+    <t>Use the DEC2BIN and DEC2HEX functions with 8 and 2 spaces respectively</t>
   </si>
 </sst>
 </file>
@@ -128,9 +128,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -138,6 +135,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -431,7 +431,7 @@
   <dimension ref="B2:M257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="F3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,24 +440,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
